--- a/payrollliveproject/src/test/resources/testdata.XLSX
+++ b/payrollliveproject/src/test/resources/testdata.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16515" windowHeight="6180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8175" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="client" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>danny</t>
   </si>
@@ -87,6 +87,36 @@
   </si>
   <si>
     <t>kl34</t>
+  </si>
+  <si>
+    <t>workerdetails</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>Malhotra</t>
+  </si>
+  <si>
+    <t>raviram@gmail.com</t>
+  </si>
+  <si>
+    <t>Bluemount Residency</t>
+  </si>
+  <si>
+    <t>glop</t>
+  </si>
+  <si>
+    <t>clients</t>
+  </si>
+  <si>
+    <t>Danil Collins</t>
+  </si>
+  <si>
+    <t>Blue MountStreet, Chelsea</t>
+  </si>
+  <si>
+    <t>danil@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -131,12 +161,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -442,25 +473,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -495,7 +529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -509,7 +543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -523,7 +557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -537,7 +571,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -551,7 +585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -565,7 +599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -576,12 +610,81 @@
         <v>7</v>
       </c>
       <c r="D8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>6756676767</v>
+      </c>
+      <c r="H9">
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>909090</v>
+      </c>
+      <c r="J9">
+        <v>12390</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9">
+        <v>22</v>
+      </c>
+      <c r="M9" s="3">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>98765</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>7867568</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="G10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/payrollliveproject/src/test/resources/testdata.XLSX
+++ b/payrollliveproject/src/test/resources/testdata.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8175" windowHeight="6000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16470" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="client" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>danny</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>danil@gmail.com</t>
+  </si>
+  <si>
+    <t>existingclientsearch</t>
+  </si>
+  <si>
+    <t>clientIDsearch</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>resetsearch</t>
   </si>
 </sst>
 </file>
@@ -473,16 +485,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -680,6 +692,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
